--- a/Model_Performance_Results.xlsx
+++ b/Model_Performance_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrkol\bootcamp data\minds-in-motion-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6330EE2C-7B53-49BE-B797-4D83A5E70357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B40CB5A-0041-4966-8D6A-50421631ED75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{7829BE25-8630-4922-B2B0-C9B979A865F1}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="17280" windowHeight="9983" xr2:uid="{7829BE25-8630-4922-B2B0-C9B979A865F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Notebook</t>
   </si>
@@ -73,13 +73,25 @@
   </si>
   <si>
     <t>just label encode house</t>
+  </si>
+  <si>
+    <t>Loan_approval.ipynb7</t>
+  </si>
+  <si>
+    <t>Loan_approval.ipynb8</t>
+  </si>
+  <si>
+    <t>tried removing STATE, labelEncode CITY</t>
+  </si>
+  <si>
+    <t>used get_dummies for CITY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +111,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -448,16 +466,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D226E02-DD12-46E9-ABA5-0F77CCAC0AAD}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.265625" customWidth="1"/>
-    <col min="2" max="2" width="29.53125" customWidth="1"/>
+    <col min="2" max="2" width="34.06640625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -559,7 +577,36 @@
         <v>0.25769999999999998</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.24829999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Model_Performance_Results.xlsx
+++ b/Model_Performance_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrkol\bootcamp data\minds-in-motion-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6330EE2C-7B53-49BE-B797-4D83A5E70357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0557D88-93A8-4743-9CD9-AB69380C8F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{7829BE25-8630-4922-B2B0-C9B979A865F1}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="17279" windowHeight="9982" xr2:uid="{7829BE25-8630-4922-B2B0-C9B979A865F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Notebook</t>
   </si>
@@ -66,20 +66,32 @@
     <t>Loan_approval.ipynb6</t>
   </si>
   <si>
-    <t>MinMax Scaler</t>
-  </si>
-  <si>
     <t>label encode car,house,married</t>
   </si>
   <si>
     <t>just label encode house</t>
+  </si>
+  <si>
+    <t>Loan_approval.ipynb7</t>
+  </si>
+  <si>
+    <t>Loan_approval.ipynb8</t>
+  </si>
+  <si>
+    <t>from #4 remove STATE, LabelEncode CITY</t>
+  </si>
+  <si>
+    <t>Use get_dummies instead to encode CITY</t>
+  </si>
+  <si>
+    <t>MinMax Scaler not Standard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +115,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -134,6 +158,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,16 +474,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D226E02-DD12-46E9-ABA5-0F77CCAC0AAD}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.265625" customWidth="1"/>
-    <col min="2" max="2" width="29.53125" customWidth="1"/>
+    <col min="2" max="2" width="33.46484375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -489,7 +515,7 @@
         <v>0.25109999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -518,16 +544,16 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6">
         <v>0.88980000000000004</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>0.24779999999999999</v>
       </c>
     </row>
@@ -536,7 +562,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>0.88849999999999996</v>
@@ -550,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0.89039999999999997</v>
@@ -559,7 +585,36 @@
         <v>0.25769999999999998</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.24829999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>